--- a/6_国際情勢と文化/通貨/為替レート_2202年度末日.xlsx
+++ b/6_国際情勢と文化/通貨/為替レート_2202年度末日.xlsx
@@ -287,11 +287,11 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>ヴァットコイン</t>
+    <t>ゴーン</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>ツリーム</t>
+    <t>ヴィル</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -923,8 +923,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I59"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
@@ -985,7 +985,7 @@
         <v>61</v>
       </c>
       <c r="F3" s="11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G3" s="12" t="s">
         <v>68</v>
@@ -995,7 +995,7 @@
       </c>
       <c r="I3" s="16">
         <f>1/VLOOKUP(G3,A2:B59,2,FALSE)*VLOOKUP(H3,A2:B59,2,FALSE)*F3</f>
-        <v>7049959144588697</v>
+        <v>20.2</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">

--- a/6_国際情勢と文化/通貨/為替レート_2202年度末日.xlsx
+++ b/6_国際情勢と文化/通貨/為替レート_2202年度末日.xlsx
@@ -287,11 +287,11 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>ゴーン</t>
+    <t>ツリーム</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>ヴィル</t>
+    <t>ヴァットコイン</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -300,8 +300,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="2">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="0.00_);[Red]\(0.00\)"/>
+    <numFmt numFmtId="178" formatCode="#,##0.00000_ "/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -601,7 +601,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -617,6 +616,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -923,8 +923,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I59"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+    <sheetView tabSelected="1" topLeftCell="A29" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="A32" sqref="A32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
@@ -947,12 +947,12 @@
       <c r="D1" t="s">
         <v>0</v>
       </c>
-      <c r="F1" s="19" t="s">
+      <c r="F1" s="18" t="s">
         <v>66</v>
       </c>
-      <c r="G1" s="20"/>
-      <c r="H1" s="20"/>
-      <c r="I1" s="21"/>
+      <c r="G1" s="19"/>
+      <c r="H1" s="19"/>
+      <c r="I1" s="20"/>
     </row>
     <row r="2" spans="1:9" ht="14.4" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
@@ -981,21 +981,21 @@
       <c r="B3" s="9">
         <v>0.63</v>
       </c>
-      <c r="D3" s="18" t="s">
+      <c r="D3" s="17" t="s">
         <v>61</v>
       </c>
       <c r="F3" s="11">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G3" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="H3" s="12" t="s">
         <v>68</v>
       </c>
-      <c r="H3" s="12" t="s">
-        <v>67</v>
-      </c>
-      <c r="I3" s="16">
+      <c r="I3" s="21">
         <f>1/VLOOKUP(G3,A2:B59,2,FALSE)*VLOOKUP(H3,A2:B59,2,FALSE)*F3</f>
-        <v>20.2</v>
+        <v>7049959144588697</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
@@ -1005,7 +1005,7 @@
       <c r="B4" s="9">
         <v>0.68</v>
       </c>
-      <c r="D4" s="18"/>
+      <c r="D4" s="17"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
@@ -1014,7 +1014,7 @@
       <c r="B5" s="9">
         <v>0.75</v>
       </c>
-      <c r="D5" s="18"/>
+      <c r="D5" s="17"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
@@ -1023,7 +1023,7 @@
       <c r="B6" s="9">
         <v>1</v>
       </c>
-      <c r="D6" s="18"/>
+      <c r="D6" s="17"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
@@ -1444,7 +1444,7 @@
       </c>
     </row>
     <row r="59" spans="1:2" ht="13.8" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="17" t="s">
+      <c r="A59" s="16" t="s">
         <v>60</v>
       </c>
       <c r="B59" s="10">

--- a/6_国際情勢と文化/通貨/為替レート_2202年度末日.xlsx
+++ b/6_国際情勢と文化/通貨/為替レート_2202年度末日.xlsx
@@ -287,11 +287,14 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>ツリーム</t>
+    <t>貝</t>
+    <rPh sb="0" eb="1">
+      <t>カイ</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>ヴァットコイン</t>
+    <t>ペリカ</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -301,7 +304,7 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="2">
     <numFmt numFmtId="176" formatCode="0.00_);[Red]\(0.00\)"/>
-    <numFmt numFmtId="178" formatCode="#,##0.00000_ "/>
+    <numFmt numFmtId="177" formatCode="#,##0.00000_ "/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -604,6 +607,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -616,7 +620,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -923,8 +926,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I59"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A29" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="A32" sqref="A32"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
@@ -947,12 +950,12 @@
       <c r="D1" t="s">
         <v>0</v>
       </c>
-      <c r="F1" s="18" t="s">
+      <c r="F1" s="19" t="s">
         <v>66</v>
       </c>
-      <c r="G1" s="19"/>
-      <c r="H1" s="19"/>
-      <c r="I1" s="20"/>
+      <c r="G1" s="20"/>
+      <c r="H1" s="20"/>
+      <c r="I1" s="21"/>
     </row>
     <row r="2" spans="1:9" ht="14.4" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
@@ -981,7 +984,7 @@
       <c r="B3" s="9">
         <v>0.63</v>
       </c>
-      <c r="D3" s="17" t="s">
+      <c r="D3" s="18" t="s">
         <v>61</v>
       </c>
       <c r="F3" s="11">
@@ -993,9 +996,9 @@
       <c r="H3" s="12" t="s">
         <v>68</v>
       </c>
-      <c r="I3" s="21">
+      <c r="I3" s="17">
         <f>1/VLOOKUP(G3,A2:B59,2,FALSE)*VLOOKUP(H3,A2:B59,2,FALSE)*F3</f>
-        <v>7049959144588697</v>
+        <v>10.000360438292963</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
@@ -1005,7 +1008,7 @@
       <c r="B4" s="9">
         <v>0.68</v>
       </c>
-      <c r="D4" s="17"/>
+      <c r="D4" s="18"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
@@ -1014,7 +1017,7 @@
       <c r="B5" s="9">
         <v>0.75</v>
       </c>
-      <c r="D5" s="17"/>
+      <c r="D5" s="18"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
@@ -1023,7 +1026,7 @@
       <c r="B6" s="9">
         <v>1</v>
       </c>
-      <c r="D6" s="17"/>
+      <c r="D6" s="18"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">

--- a/6_国際情勢と文化/通貨/為替レート_2202年度末日.xlsx
+++ b/6_国際情勢と文化/通貨/為替レート_2202年度末日.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="68">
   <si>
     <t>基準となる通貨はヴィル</t>
     <rPh sb="0" eb="2">
@@ -291,10 +291,6 @@
     <rPh sb="0" eb="1">
       <t>カイ</t>
     </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ペリカ</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -927,7 +923,7 @@
   <dimension ref="A1:I59"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
@@ -988,17 +984,17 @@
         <v>61</v>
       </c>
       <c r="F3" s="11">
-        <v>1</v>
+        <v>200</v>
       </c>
       <c r="G3" s="12" t="s">
         <v>67</v>
       </c>
       <c r="H3" s="12" t="s">
-        <v>68</v>
+        <v>25</v>
       </c>
       <c r="I3" s="17">
         <f>1/VLOOKUP(G3,A2:B59,2,FALSE)*VLOOKUP(H3,A2:B59,2,FALSE)*F3</f>
-        <v>10.000360438292963</v>
+        <v>11876.268742791233</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
@@ -1463,6 +1459,11 @@
     <mergeCell ref="F1:I1"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G3:H3">
+      <formula1>$A$2:$A$59</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
